--- a/code/ch8-case-study/reports/commission_report.xlsx
+++ b/code/ch8-case-study/reports/commission_report.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001000000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.002600000000000013</v>
+        <v>0.0026</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>0.01699999999999967</v>
+        <v>0.017</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
